--- a/Datos/data_statistical.xlsx
+++ b/Datos/data_statistical.xlsx
@@ -1880,6 +1880,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100099F4328816B724ABB65184634EDCB7A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bd4f96a89e0bf3f95a675bb701c673a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17c5fd42-a044-4f07-a556-35a9304bdabd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e0b4ba08ccf20d12e7907069f81316d" ns2:_="">
     <xsd:import namespace="17c5fd42-a044-4f07-a556-35a9304bdabd"/>
@@ -2025,12 +2031,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81546A3-C62E-44CE-A065-5F6C0D4A2117}">
   <ds:schemaRefs>
@@ -2040,6 +2040,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67AF54F8-9454-44E1-A274-4CE13ABA8D28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17c5fd42-a044-4f07-a556-35a9304bdabd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8BD45EC-7A23-43D7-AAF9-EC9E08ECF9A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2056,20 +2072,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67AF54F8-9454-44E1-A274-4CE13ABA8D28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="17c5fd42-a044-4f07-a556-35a9304bdabd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>